--- a/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSON pt 8.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/HILLARY LEWIS-WOLFSON pt 8.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1083,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1235,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1425,12 +1425,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
